--- a/Расчёты/расчёт шлицевого соединения.xlsx
+++ b/Расчёты/расчёт шлицевого соединения.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\МГТУ\6 сем\ДетМаш Курсач\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\GitHub\reductor\reductor\Расчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B34CCE-E730-4AEA-A7F6-A8B8570510A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60899DF-B616-46E0-B983-F732352C055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3180" yWindow="3540" windowWidth="17280" windowHeight="8964" xr2:uid="{1BF9E398-A0BF-4581-9DFC-714CAB9A6C53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BF9E398-A0BF-4581-9DFC-714CAB9A6C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>T</t>
   </si>
@@ -90,13 +88,22 @@
   </si>
   <si>
     <t xml:space="preserve">D_a = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k = </t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d_b основ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,18 +487,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75394E36-69B9-4FFB-BE07-A163CA37360F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -513,7 +520,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -529,7 +536,7 @@
         <v>1.1862412883343258</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -538,7 +545,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -546,8 +553,15 @@
         <f>0.8*B7</f>
         <v>4.8000000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <f>5*(9*B9/B6+0.5)*B19/B17+1</f>
+        <v>29.867602676814066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -555,7 +569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -563,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -577,7 +591,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
@@ -585,67 +605,75 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>114.315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B18">
         <f>B8-2.2*B7</f>
         <v>126.8</v>
       </c>
-      <c r="C10">
-        <f>B10/2</f>
+      <c r="C18">
+        <f>B18/2</f>
         <v>63.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B19">
         <f>B7*B4</f>
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B20">
         <f>B8-0.2*B7</f>
         <v>138.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B21">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B22">
         <v>10.233000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B23">
         <f>0.15*B7</f>
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B25">
         <f>B8-2*B7</f>
         <v>128</v>
       </c>
